--- a/biology/Médecine/Cervicotomie/Cervicotomie.xlsx
+++ b/biology/Médecine/Cervicotomie/Cervicotomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cervicotomie est une voie d'abord chirurgicale antérieure du cou, particulièrement utilisée pour la chirurgie de la thyroïde.
 </t>
@@ -511,7 +523,9 @@
           <t>Repères anatomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cervicotomie médiane est une incision arciforme, réalisée à la base du cou, deux à trois centimètres au-dessus de la fourchette sternale. L'incision est généralement tracée dans un pli du cou, à des fins esthétiques. Elle est symétrique, centrée sur l'axe de la trachée.
 La longueur de la cervicotomie varie selon l'exposition nécessaire à l'intervention. À minima, elle mesurera trois à quatre centimètres de long pour une médiastinoscopie. À maxima, elle s'étendra d'un muscle sterno-cléido-mastoïdien à l'autre et pourra remonter le long de ces muscles jusqu'à la mandibule. On parle alors de cervicotomie en U.
@@ -543,7 +557,9 @@
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cervicotomie médiane donne accès à la thyroïde, aux parathyroïdes, et à la partie supérieure du médiastin.
  Portail de la médecine                     </t>
